--- a/Python/LPF_cp.xlsx
+++ b/Python/LPF_cp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>it</t>
   </si>
@@ -31,94 +31,238 @@
     <t>mu</t>
   </si>
   <si>
-    <t>[11.999   8.0005  0.0015  0.0005]</t>
-  </si>
-  <si>
-    <t>[ 6.031   9.3222 10.59    7.9328]</t>
-  </si>
-  <si>
-    <t>[ 6.805  10.0711  8.319   4.1768]</t>
-  </si>
-  <si>
-    <t>[ 7.9458 10.0622  6.0463  1.922 ]</t>
-  </si>
-  <si>
-    <t>[9.6863 9.2174 3.41   0.9752]</t>
-  </si>
-  <si>
-    <t>[10.9808  8.5133  1.525   0.4983]</t>
-  </si>
-  <si>
-    <t>[11.5009  8.2493  0.7489  0.2504]</t>
-  </si>
-  <si>
-    <t>[11.75    8.125   0.3751  0.125 ]</t>
-  </si>
-  <si>
-    <t>[11.8751  8.0625  0.1874  0.0625]</t>
-  </si>
-  <si>
-    <t>[11.9376  8.0312  0.0936  0.0312]</t>
-  </si>
-  <si>
-    <t>[11.9688  8.0156  0.0468  0.0156]</t>
-  </si>
-  <si>
-    <t>[11.9844  8.0078  0.0234  0.0078]</t>
-  </si>
-  <si>
-    <t>[11.9922  8.0039  0.0117  0.0039]</t>
-  </si>
-  <si>
-    <t>[11.9961  8.0019  0.0058  0.0019]</t>
-  </si>
-  <si>
-    <t>[11.9981  8.001   0.0029  0.001 ]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.0001 0.5    1.5   ]</t>
-  </si>
-  <si>
-    <t>[1.724  1.3098 1.137  1.7228]</t>
-  </si>
-  <si>
-    <t>[0.7795 0.542  0.8136 1.5761]</t>
-  </si>
-  <si>
-    <t>[0.312  0.2996 0.5842 1.5718]</t>
-  </si>
-  <si>
-    <t>[0.1211 0.1747 0.5035 1.5571]</t>
-  </si>
-  <si>
-    <t>[0.0614 0.0949 0.4986 1.5321]</t>
-  </si>
-  <si>
-    <t>[0.0313 0.047  0.4999 1.5157]</t>
-  </si>
-  <si>
-    <t>[0.0156 0.0234 0.5    1.5078]</t>
-  </si>
-  <si>
-    <t>[0.0078 0.0117 0.5    1.5039]</t>
-  </si>
-  <si>
-    <t>[0.0039 0.0059 0.5    1.502 ]</t>
-  </si>
-  <si>
-    <t>[0.0019 0.0029 0.5    1.501 ]</t>
-  </si>
-  <si>
-    <t>[0.001  0.0015 0.5    1.5005]</t>
-  </si>
-  <si>
-    <t>[0.0005 0.0007 0.5    1.5002]</t>
-  </si>
-  <si>
-    <t>[0.0002 0.0004 0.5    1.5001]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.0002 0.5    1.5001]</t>
+    <t>[1.5 1.5 2.5 2.5]</t>
+  </si>
+  <si>
+    <t>[3.4773 3.4773 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.0656 3.0656 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.4208 3.4208 1.3337 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.7961 2.7961 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.6075 2.6075 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.0519 3.0519 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.1701 2.1701 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.3638 2.3638 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.3268 3.3268 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.2835 2.2835 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.6141 2.6141 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.3104 3.3104 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.4041 2.4041 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.4646 3.4646 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.2452 2.2452 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.0608 2.0608 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.0217 3.0217 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.8806 2.8806 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.0692 2.0692 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.1559 3.1559 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.2162 3.2162 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.9725 2.9725 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.8586 2.8586 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.7106 2.7106 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[2.8192 2.8192 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.5 3.5 4.5 4.5]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 5.4022 5.4022]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.8259 4.8259]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 5.3231 5.3231]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.4485 4.4485]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.1845 4.1845]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.8067 4.8067]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.5721 3.5721]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.8433 3.8433]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 5.1916 5.1916]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.7308 3.7308]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.1937 4.1937]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 5.1686 5.1686]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.8997 3.8997]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 5.3845 5.3845]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.6772 3.6772]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.4191 3.4191]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.7644 4.7644]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.5668 4.5668]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.4309 3.4309]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.9522 4.9522]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 5.0367 5.0367]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.6954 4.6954]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.5361 4.5361]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.3289 4.3289]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 4.4809 4.4809]</t>
+  </si>
+  <si>
+    <t>[ 5.25  5.25 11.25 11.25]</t>
+  </si>
+  <si>
+    <t>[0.0043 0.0043 7.2052 7.2052]</t>
+  </si>
+  <si>
+    <t>[0.0038 0.0038 6.4365 6.4365]</t>
+  </si>
+  <si>
+    <t>[0.0043 0.0043 7.0997 7.0997]</t>
+  </si>
+  <si>
+    <t>[0.0035 0.0035 5.9332 5.9332]</t>
+  </si>
+  <si>
+    <t>[0.0033 0.0033 5.581  5.581 ]</t>
+  </si>
+  <si>
+    <t>[0.0038 0.0038 6.4109 6.4109]</t>
+  </si>
+  <si>
+    <t>[0.0027 0.0027 4.7643 4.7643]</t>
+  </si>
+  <si>
+    <t>[0.003 0.003 5.126 5.126]</t>
+  </si>
+  <si>
+    <t>[0.0042 0.0042 6.9243 6.9243]</t>
+  </si>
+  <si>
+    <t>[0.0029 0.0029 4.976  4.976 ]</t>
+  </si>
+  <si>
+    <t>[0.0033 0.0033 5.5933 5.5933]</t>
+  </si>
+  <si>
+    <t>[0.0041 0.0041 6.8936 6.8936]</t>
+  </si>
+  <si>
+    <t>[0.003  0.003  5.2012 5.2012]</t>
+  </si>
+  <si>
+    <t>[0.0043 0.0043 7.1816 7.1816]</t>
+  </si>
+  <si>
+    <t>[0.0028 0.0028 4.9045 4.9045]</t>
+  </si>
+  <si>
+    <t>[0.0026 0.0026 4.5603 4.5603]</t>
+  </si>
+  <si>
+    <t>[0.0038 0.0038 6.3545 6.3545]</t>
+  </si>
+  <si>
+    <t>[0.0036 0.0036 6.091  6.091 ]</t>
+  </si>
+  <si>
+    <t>[0.0026 0.0026 4.576  4.576 ]</t>
+  </si>
+  <si>
+    <t>[0.0039 0.0039 6.605  6.605 ]</t>
+  </si>
+  <si>
+    <t>[0.004  0.004  6.7176 6.7176]</t>
+  </si>
+  <si>
+    <t>[0.0037 0.0037 6.2625 6.2625]</t>
+  </si>
+  <si>
+    <t>[0.0036 0.0036 6.05   6.05  ]</t>
+  </si>
+  <si>
+    <t>[0.0034 0.0034 5.7737 5.7737]</t>
+  </si>
+  <si>
+    <t>[0.0035 0.0035 5.9763 5.9763]</t>
   </si>
 </sst>
 </file>
@@ -476,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +648,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-64.68039867109638</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0.002909413684911699</v>
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -521,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48.46174645026508</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>48.31441646227755</v>
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,16 +682,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.11440451059778</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>24.11451827091446</v>
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -555,16 +699,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.04641779523956</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>12.04641770193686</v>
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -572,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.017787957489404</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>6.017787957568491</v>
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -589,16 +733,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.006185974206161</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3.006185974206084</v>
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -606,16 +750,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.501740203414641</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1.501740203414648</v>
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -623,16 +767,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7501943186158115</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>0.7501943186157869</v>
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -640,16 +784,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3747595718645016</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>0.3747595718645163</v>
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -657,16 +801,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.187211144124916</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11">
-        <v>0.187211144124919</v>
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -674,16 +818,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.09352132704759697</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>0.09352132704760328</v>
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -691,16 +835,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.04671857892662956</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
-        <v>0.04671857892663022</v>
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -708,16 +852,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02333826610279743</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>0.02333826610279812</v>
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -725,16 +869,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01165863083163288</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>0.0116586308316528</v>
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -742,16 +886,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005824069031916679</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16">
-        <v>0.005824069031952157</v>
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -759,16 +903,594 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.002909413684903939</v>
+        <v>-3.000000000000002</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="E17">
-        <v>0.002909413684911699</v>
+      <c r="B22">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF_cp.xlsx
+++ b/Python/LPF_cp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>it</t>
   </si>
@@ -31,109 +31,136 @@
     <t>mu</t>
   </si>
   <si>
-    <t>[17.2439 15.8724 10.3867  9.0153]</t>
-  </si>
-  <si>
-    <t>[7.7413 9.1622 7.361  5.0395]</t>
-  </si>
-  <si>
-    <t>[7.0684 9.7981 8.0651 4.4689]</t>
-  </si>
-  <si>
-    <t>[ 8.2436 10.1935  5.3193  0.9324]</t>
-  </si>
-  <si>
-    <t>[10.9898  8.4114  1.6089  0.786 ]</t>
-  </si>
-  <si>
-    <t>[11.7431  8.1414  0.3724  0.0897]</t>
-  </si>
-  <si>
-    <t>[11.8414  8.0791  0.2381  0.08  ]</t>
-  </si>
-  <si>
-    <t>[11.9839  8.008   0.0243  0.0082]</t>
-  </si>
-  <si>
-    <t>[11.9839  8.008   0.0241  0.008 ]</t>
-  </si>
-  <si>
-    <t>[11.9984  8.0008  0.0024  0.0008]</t>
-  </si>
-  <si>
-    <t>[11.9998  8.0001  0.0002  0.0001]</t>
-  </si>
-  <si>
-    <t>[12.  8.  0.  0.]</t>
-  </si>
-  <si>
-    <t>[1.5571 1.3    2.2714 3.0143]</t>
-  </si>
-  <si>
-    <t>[1.0008 0.7046 0.8986 1.6023]</t>
-  </si>
-  <si>
-    <t>[1.0201 0.7395 0.8953 1.6147]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.0929 0.4537 1.5464]</t>
-  </si>
-  <si>
-    <t>[0.1456 0.134  0.5422 1.5306]</t>
-  </si>
-  <si>
-    <t>[0.001  0.0186 0.4914 1.5091]</t>
-  </si>
-  <si>
-    <t>[0.0102 0.0149 0.5002 1.5049]</t>
-  </si>
-  <si>
-    <t>[0.0009 0.0016 0.4999 1.5006]</t>
-  </si>
-  <si>
-    <t>[0.001  0.0015 0.5    1.5005]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.0002 0.5    1.5001]</t>
-  </si>
-  <si>
-    <t>[0.  0.  0.5 1.5]</t>
-  </si>
-  <si>
-    <t>[26.8511 20.6342 23.5927 27.1746]</t>
-  </si>
-  <si>
-    <t>[7.7477 6.4554 6.6144 8.0749]</t>
-  </si>
-  <si>
-    <t>[7.2102 7.2453 7.2208 7.216 ]</t>
-  </si>
-  <si>
-    <t>[0.0012 0.9468 2.4132 1.4418]</t>
-  </si>
-  <si>
-    <t>[1.6002 1.1274 0.8723 1.2031]</t>
-  </si>
-  <si>
-    <t>[0.0114 0.1515 0.183  0.1353]</t>
-  </si>
-  <si>
-    <t>[0.1212 0.1205 0.1191 0.1203]</t>
-  </si>
-  <si>
-    <t>[0.0107 0.013  0.0121 0.0124]</t>
-  </si>
-  <si>
-    <t>[0.0121 0.0121 0.0121 0.0121]</t>
-  </si>
-  <si>
-    <t>[0.0012 0.0012 0.0012 0.0012]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.0001 0.0001 0.0001]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0. 0.]</t>
+    <t>[1394.5226 1559.9072  932.9841 1267.5995  786.8303  748.3688]</t>
+  </si>
+  <si>
+    <t>[635.7415 790.403  364.524  709.8625 324.2537 677.1571]</t>
+  </si>
+  <si>
+    <t>[ 517.9243  850.5257  482.0757  649.4743  381.55   1027.2512]</t>
+  </si>
+  <si>
+    <t>[ 599.5313 1038.77    400.4687  461.23    111.6987  324.3347]</t>
+  </si>
+  <si>
+    <t>[ 600.3989 1079.1645  399.6011  420.8355   70.4366  240.0753]</t>
+  </si>
+  <si>
+    <t>[ 627.7799 1122.2086  372.2201  377.7914    0.0115   44.4633]</t>
+  </si>
+  <si>
+    <t>[ 642.6176 1099.4365  357.3824  400.5635    7.9459   30.6565]</t>
+  </si>
+  <si>
+    <t>[ 649.1037 1100.2143  350.8963  399.7857    0.6819    3.1564]</t>
+  </si>
+  <si>
+    <t>[ 649.2361 1099.9972  350.7639  400.0028    0.7668    3.0614]</t>
+  </si>
+  <si>
+    <t>[ 649.9219 1100.0023  350.0781  399.9977    0.0758    0.3079]</t>
+  </si>
+  <si>
+    <t>[ 649.9233 1100.      350.0767  400.        0.0767    0.3068]</t>
+  </si>
+  <si>
+    <t>[ 649.9923 1100.      350.0077  400.        0.0077    0.0307]</t>
+  </si>
+  <si>
+    <t>[ 649.9992 1100.      350.0008  400.        0.0008    0.0031]</t>
+  </si>
+  <si>
+    <t>[ 649.9999 1100.      350.0001  400.        0.0001    0.0003]</t>
+  </si>
+  <si>
+    <t>[ 650. 1100.  350.  400.    0.    0.]</t>
+  </si>
+  <si>
+    <t>[5.3942 4.2404 5.5096 6.6635 6.7212 8.1058]</t>
+  </si>
+  <si>
+    <t>[3.4031 2.5101 4.056  3.4469 4.7803 1.6431]</t>
+  </si>
+  <si>
+    <t>[3.4451 2.0728 3.6005 2.8138 4.6734 1.7928]</t>
+  </si>
+  <si>
+    <t>[0.2167 0.0004 1.4121 1.4302 4.3359 1.6172]</t>
+  </si>
+  <si>
+    <t>[0.657  0.3793 0.987  0.9796 5.1295 1.6351]</t>
+  </si>
+  <si>
+    <t>[0.0464 0.0276 0.1824 0.21   5.7713 1.5232]</t>
+  </si>
+  <si>
+    <t>[0.072  0.0414 0.1305 0.1087 5.9239 1.5044]</t>
+  </si>
+  <si>
+    <t>[0.0064 0.0041 0.0152 0.0117 5.9937 1.4994]</t>
+  </si>
+  <si>
+    <t>[0.0071 0.0042 0.0131 0.0115 5.9914 1.5006]</t>
+  </si>
+  <si>
+    <t>[0.0007 0.0004 0.0013 0.0012 5.9992 1.5   ]</t>
+  </si>
+  <si>
+    <t>[0.0007 0.0004 0.0013 0.0012 5.9991 1.5001]</t>
+  </si>
+  <si>
+    <t>[0.0001 0.     0.0001 0.0001 5.9999 1.5   ]</t>
+  </si>
+  <si>
+    <t>[0.  0.  0.  0.  6.  1.5]</t>
+  </si>
+  <si>
+    <t>[7522.3767 6614.6065 5140.3838 8446.6007 5288.4074 6066.1044]</t>
+  </si>
+  <si>
+    <t>[2163.5023 1983.9761 1478.5166 2446.846  1550.0295 1112.6112]</t>
+  </si>
+  <si>
+    <t>[1784.3006 1762.9554 1735.6953 1827.4814 1783.1197 1841.6761]</t>
+  </si>
+  <si>
+    <t>[129.9425   0.4373 565.4931 659.6292 484.3117 524.513 ]</t>
+  </si>
+  <si>
+    <t>[394.4364 409.3603 394.4232 412.254  361.3066 392.5462]</t>
+  </si>
+  <si>
+    <t>[29.1503 30.9997 67.8983 79.3202  0.0665 67.7254]</t>
+  </si>
+  <si>
+    <t>[46.2387 45.5457 46.6307 43.555  47.0708 46.1194]</t>
+  </si>
+  <si>
+    <t>[4.1693 4.5652 5.342  4.6693 4.0872 4.7326]</t>
+  </si>
+  <si>
+    <t>[4.5943 4.5943 4.5945 4.5942 4.5941 4.5941]</t>
+  </si>
+  <si>
+    <t>[0.4559 0.4602 0.4683 0.4603 0.4549 0.4619]</t>
+  </si>
+  <si>
+    <t>[0.4603 0.4603 0.4603 0.4603 0.4603 0.4603]</t>
+  </si>
+  <si>
+    <t>[0.0461 0.0461 0.0462 0.0461 0.0461 0.0461]</t>
+  </si>
+  <si>
+    <t>[0.0461 0.0461 0.0461 0.0461 0.0461 0.0461]</t>
+  </si>
+  <si>
+    <t>[0.0046 0.0046 0.0046 0.0046 0.0046 0.0046]</t>
+  </si>
+  <si>
+    <t>[0.0005 0.0005 0.0005 0.0005 0.0005 0.0005]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0. 0. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -491,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,16 +546,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-64.68039867109638</v>
+        <v>-13938.82071236158</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -536,16 +563,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.86364447951838</v>
+        <v>10726.24270163211</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -553,16 +580,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.89229531460035</v>
+        <v>10735.22858742916</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -570,16 +597,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.803055173099153</v>
+        <v>2364.326744095397</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -587,16 +614,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.803055173110948</v>
+        <v>2364.326744096528</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -604,16 +631,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4811700672406118</v>
+        <v>275.1603464777181</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -621,16 +648,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4811700672407113</v>
+        <v>275.1603464776745</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -638,16 +665,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04820361733618483</v>
+        <v>27.56556351013569</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -655,16 +682,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04820361733615641</v>
+        <v>27.56556351013569</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -672,16 +699,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004829038384727369</v>
+        <v>2.761518152441568</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -689,16 +716,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.004829038384727369</v>
+        <v>2.761518152441568</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -706,16 +733,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004837730653548533</v>
+        <v>0.2766488885026774</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -723,16 +750,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.000483773065383275</v>
+        <v>0.2766488885135914</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -740,16 +767,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.846438568506528e-05</v>
+        <v>0.02771468565333635</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -757,16 +784,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.846438568506528e-05</v>
+        <v>0.02771468565333635</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -774,16 +801,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.855162174521865e-06</v>
+        <v>0.002776457229629159</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -791,16 +818,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.855162146100156e-06</v>
+        <v>0.002776457204163307</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -808,16 +835,50 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.863901494900347e-07</v>
+        <v>0.0002781454786600079</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.0002781454859359656</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2.786461482173763e-05</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF_cp.xlsx
+++ b/Python/LPF_cp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>it</t>
   </si>
@@ -31,136 +31,322 @@
     <t>mu</t>
   </si>
   <si>
-    <t>[1394.5226 1559.9072  932.9841 1267.5995  786.8303  748.3688]</t>
-  </si>
-  <si>
-    <t>[635.7415 790.403  364.524  709.8625 324.2537 677.1571]</t>
-  </si>
-  <si>
-    <t>[ 517.9243  850.5257  482.0757  649.4743  381.55   1027.2512]</t>
-  </si>
-  <si>
-    <t>[ 599.5313 1038.77    400.4687  461.23    111.6987  324.3347]</t>
-  </si>
-  <si>
-    <t>[ 600.3989 1079.1645  399.6011  420.8355   70.4366  240.0753]</t>
-  </si>
-  <si>
-    <t>[ 627.7799 1122.2086  372.2201  377.7914    0.0115   44.4633]</t>
-  </si>
-  <si>
-    <t>[ 642.6176 1099.4365  357.3824  400.5635    7.9459   30.6565]</t>
-  </si>
-  <si>
-    <t>[ 649.1037 1100.2143  350.8963  399.7857    0.6819    3.1564]</t>
-  </si>
-  <si>
-    <t>[ 649.2361 1099.9972  350.7639  400.0028    0.7668    3.0614]</t>
-  </si>
-  <si>
-    <t>[ 649.9219 1100.0023  350.0781  399.9977    0.0758    0.3079]</t>
-  </si>
-  <si>
-    <t>[ 649.9233 1100.      350.0767  400.        0.0767    0.3068]</t>
-  </si>
-  <si>
-    <t>[ 649.9923 1100.      350.0077  400.        0.0077    0.0307]</t>
-  </si>
-  <si>
-    <t>[ 649.9992 1100.      350.0008  400.        0.0008    0.0031]</t>
-  </si>
-  <si>
-    <t>[ 649.9999 1100.      350.0001  400.        0.0001    0.0003]</t>
-  </si>
-  <si>
-    <t>[ 650. 1100.  350.  400.    0.    0.]</t>
-  </si>
-  <si>
-    <t>[5.3942 4.2404 5.5096 6.6635 6.7212 8.1058]</t>
-  </si>
-  <si>
-    <t>[3.4031 2.5101 4.056  3.4469 4.7803 1.6431]</t>
-  </si>
-  <si>
-    <t>[3.4451 2.0728 3.6005 2.8138 4.6734 1.7928]</t>
-  </si>
-  <si>
-    <t>[0.2167 0.0004 1.4121 1.4302 4.3359 1.6172]</t>
-  </si>
-  <si>
-    <t>[0.657  0.3793 0.987  0.9796 5.1295 1.6351]</t>
-  </si>
-  <si>
-    <t>[0.0464 0.0276 0.1824 0.21   5.7713 1.5232]</t>
-  </si>
-  <si>
-    <t>[0.072  0.0414 0.1305 0.1087 5.9239 1.5044]</t>
-  </si>
-  <si>
-    <t>[0.0064 0.0041 0.0152 0.0117 5.9937 1.4994]</t>
-  </si>
-  <si>
-    <t>[0.0071 0.0042 0.0131 0.0115 5.9914 1.5006]</t>
-  </si>
-  <si>
-    <t>[0.0007 0.0004 0.0013 0.0012 5.9992 1.5   ]</t>
-  </si>
-  <si>
-    <t>[0.0007 0.0004 0.0013 0.0012 5.9991 1.5001]</t>
-  </si>
-  <si>
-    <t>[0.0001 0.     0.0001 0.0001 5.9999 1.5   ]</t>
-  </si>
-  <si>
-    <t>[0.  0.  0.  0.  6.  1.5]</t>
-  </si>
-  <si>
-    <t>[7522.3767 6614.6065 5140.3838 8446.6007 5288.4074 6066.1044]</t>
-  </si>
-  <si>
-    <t>[2163.5023 1983.9761 1478.5166 2446.846  1550.0295 1112.6112]</t>
-  </si>
-  <si>
-    <t>[1784.3006 1762.9554 1735.6953 1827.4814 1783.1197 1841.6761]</t>
-  </si>
-  <si>
-    <t>[129.9425   0.4373 565.4931 659.6292 484.3117 524.513 ]</t>
-  </si>
-  <si>
-    <t>[394.4364 409.3603 394.4232 412.254  361.3066 392.5462]</t>
-  </si>
-  <si>
-    <t>[29.1503 30.9997 67.8983 79.3202  0.0665 67.7254]</t>
-  </si>
-  <si>
-    <t>[46.2387 45.5457 46.6307 43.555  47.0708 46.1194]</t>
-  </si>
-  <si>
-    <t>[4.1693 4.5652 5.342  4.6693 4.0872 4.7326]</t>
-  </si>
-  <si>
-    <t>[4.5943 4.5943 4.5945 4.5942 4.5941 4.5941]</t>
-  </si>
-  <si>
-    <t>[0.4559 0.4602 0.4683 0.4603 0.4549 0.4619]</t>
-  </si>
-  <si>
-    <t>[0.4603 0.4603 0.4603 0.4603 0.4603 0.4603]</t>
-  </si>
-  <si>
-    <t>[0.0461 0.0461 0.0462 0.0461 0.0461 0.0461]</t>
-  </si>
-  <si>
-    <t>[0.0461 0.0461 0.0461 0.0461 0.0461 0.0461]</t>
-  </si>
-  <si>
-    <t>[0.0046 0.0046 0.0046 0.0046 0.0046 0.0046]</t>
-  </si>
-  <si>
-    <t>[0.0005 0.0005 0.0005 0.0005 0.0005 0.0005]</t>
-  </si>
-  <si>
-    <t>[0. 0. 0. 0. 0. 0.]</t>
+    <t>[0.2564 0.2564 0.7564 0.2583 0.2567 0.2562 0.7564]</t>
+  </si>
+  <si>
+    <t>[ 0.5513  0.0324  0.5295 -0.0077  0.6026  0.4511  0.5224]</t>
+  </si>
+  <si>
+    <t>[2.6256 0.0299 0.5068 0.0757 0.4787 1.1647 0.4932]</t>
+  </si>
+  <si>
+    <t>[-1.1187  0.0086  0.5118  0.0414  0.4438  1.2193  0.4882]</t>
+  </si>
+  <si>
+    <t>[-1.506   0.007   0.5163  0.0333  0.5189  1.2956  0.4837]</t>
+  </si>
+  <si>
+    <t>[-0.7895  0.0043  0.5233  0.0182  0.3106  0.7344  0.4767]</t>
+  </si>
+  <si>
+    <t>[-0.7897  0.0043  0.5286  0.0182  0.3108  0.7344  0.4714]</t>
+  </si>
+  <si>
+    <t>[-0.4087  0.0022  0.5418  0.0097  0.1682  0.3835  0.4582]</t>
+  </si>
+  <si>
+    <t>[-0.4086  0.0022  0.5531  0.0097  0.1685  0.3835  0.4469]</t>
+  </si>
+  <si>
+    <t>[-0.2268  0.0012  0.5745  0.0057  0.101   0.2164  0.4255]</t>
+  </si>
+  <si>
+    <t>[-0.2267  0.0012  0.5887  0.0057  0.1014  0.2165  0.4113]</t>
+  </si>
+  <si>
+    <t>[-0.0533  0.0003  0.6443  0.0019  0.0382  0.0578  0.3557]</t>
+  </si>
+  <si>
+    <t>[-0.054   0.0003  0.7182  0.0019  0.0416  0.0605  0.2818]</t>
+  </si>
+  <si>
+    <t>[-0.0355  0.0002  0.75    0.0015  0.0363  0.0443  0.25  ]</t>
+  </si>
+  <si>
+    <t>[-0.0358  0.0002  0.755   0.0015  0.0367  0.0448  0.245 ]</t>
+  </si>
+  <si>
+    <t>[-0.0077  0.      0.8211  0.0008  0.0298  0.0211  0.1789]</t>
+  </si>
+  <si>
+    <t>[-0.0104  0.0001  0.8434  0.0007  0.0329  0.0246  0.1566]</t>
+  </si>
+  <si>
+    <t>[-0.0075  0.      0.8649  0.0006  0.0333  0.0226  0.1351]</t>
+  </si>
+  <si>
+    <t>[-0.0076  0.      0.867   0.0006  0.0335  0.0228  0.133 ]</t>
+  </si>
+  <si>
+    <t>[-0.0016  0.      0.9181  0.0003  0.035   0.019   0.0819]</t>
+  </si>
+  <si>
+    <t>[-0.0022  0.      0.9375  0.0002  0.0366  0.0202  0.0625]</t>
+  </si>
+  <si>
+    <t>[-0.001   0.      0.9642  0.0001  0.038   0.0198  0.0358]</t>
+  </si>
+  <si>
+    <t>[-0.001   0.      0.9675  0.0001  0.0382  0.0199  0.0325]</t>
+  </si>
+  <si>
+    <t>[-0.0006  0.      0.9793  0.0001  0.0389  0.0199  0.0207]</t>
+  </si>
+  <si>
+    <t>[-0.0006  0.      0.9799  0.0001  0.0389  0.0199  0.0201]</t>
+  </si>
+  <si>
+    <t>[-0.0004  0.      0.9869  0.      0.0393  0.0199  0.0131]</t>
+  </si>
+  <si>
+    <t>[-0.0004  0.      0.9871  0.      0.0393  0.02    0.0129]</t>
+  </si>
+  <si>
+    <t>[-0.0002  0.      0.9921  0.      0.0396  0.02    0.0079]</t>
+  </si>
+  <si>
+    <t>[-0.0002  0.      0.9922  0.      0.0396  0.02    0.0078]</t>
+  </si>
+  <si>
+    <t>[-0.0001  0.      0.9953  0.      0.0397  0.02    0.0047]</t>
+  </si>
+  <si>
+    <t>[-0.0001  0.      0.9958  0.      0.0398  0.02    0.0042]</t>
+  </si>
+  <si>
+    <t>[-0.      0.      0.9987  0.      0.0399  0.02    0.0013]</t>
+  </si>
+  <si>
+    <t>[-0.      0.      0.9988  0.      0.0399  0.02    0.0012]</t>
+  </si>
+  <si>
+    <t>[-0.      0.      0.9996  0.      0.04    0.02    0.0004]</t>
+  </si>
+  <si>
+    <t>[-0.      0.      0.9999  0.      0.04    0.02    0.0001]</t>
+  </si>
+  <si>
+    <t>[-0.    0.    1.    0.    0.04  0.02  0.  ]</t>
+  </si>
+  <si>
+    <t>[6.9767 6.8149 6.7617 7.2398 5.2645 9.4371 6.775 ]</t>
+  </si>
+  <si>
+    <t>[ 0.6338 14.5963  5.4084 16.0836  1.3802  1.7347  5.4771]</t>
+  </si>
+  <si>
+    <t>[-0.3022 36.5576  2.4005 25.105   2.1891 -0.1989  2.504 ]</t>
+  </si>
+  <si>
+    <t>[-0.2477 42.1257  0.9256 17.7467  1.1644  0.4223  1.0006]</t>
+  </si>
+  <si>
+    <t>[-0.3442 63.6568  0.9317 15.0866  0.8869  0.3681  0.9946]</t>
+  </si>
+  <si>
+    <t>[-0.3447 63.8332  0.5153 15.0418  0.8814  0.3698  0.5779]</t>
+  </si>
+  <si>
+    <t>[-0.3452 63.9709  0.5157 15.0074  0.8771  0.3711  0.5782]</t>
+  </si>
+  <si>
+    <t>[-0.3479 64.6761  0.2582 14.888   0.8634  0.3724  0.3201]</t>
+  </si>
+  <si>
+    <t>[-0.3507 65.3639  0.2591 14.773   0.8503  0.3736  0.3206]</t>
+  </si>
+  <si>
+    <t>[-0.3558 66.6696  0.1376 14.5547  0.8253  0.3757  0.1981]</t>
+  </si>
+  <si>
+    <t>[-0.3602 67.7578  0.1387 14.377   0.8051  0.3771  0.1985]</t>
+  </si>
+  <si>
+    <t>[-0.3768 71.9004  0.0259 13.6993  0.728   0.3824  0.0827]</t>
+  </si>
+  <si>
+    <t>[-0.426  83.6353  0.0327 11.9688  0.5367  0.3796  0.0817]</t>
+  </si>
+  <si>
+    <t>[-0.4488 88.8623  0.0213 11.2697  0.4617  0.3715  0.0672]</t>
+  </si>
+  <si>
+    <t>[-0.4566 90.5173  0.0216 11.0958  0.4447  0.3644  0.0667]</t>
+  </si>
+  <si>
+    <t>[ -0.5252 105.8272   0.006    9.2003   0.2468   0.3262   0.0424]</t>
+  </si>
+  <si>
+    <t>[ -0.5914 118.818    0.0071   8.2649   0.1751   0.2298   0.0387]</t>
+  </si>
+  <si>
+    <t>[ -0.6113 122.9371   0.0053   7.8774   0.1393   0.2078   0.0351]</t>
+  </si>
+  <si>
+    <t>[ -0.6129 123.2327   0.0054   7.8657   0.1391   0.2047   0.035 ]</t>
+  </si>
+  <si>
+    <t>[ -0.689  138.4232   0.0015   6.6663   0.0401   0.1019   0.0251]</t>
+  </si>
+  <si>
+    <t>[ -0.7017 140.6656   0.0017   6.6083   0.0425   0.0754   0.0249]</t>
+  </si>
+  <si>
+    <t>[ -0.7269 145.5734   0.0007   6.2745   0.0181   0.0371   0.0222]</t>
+  </si>
+  <si>
+    <t>[ -0.7272 145.6039   0.0007   6.279    0.0189   0.0362   0.0222]</t>
+  </si>
+  <si>
+    <t>[ -0.7365 147.4044   0.0004   6.1629   0.0109   0.0216   0.0213]</t>
+  </si>
+  <si>
+    <t>[ -0.7365 147.4003   0.0004   6.1639   0.011    0.0215   0.0213]</t>
+  </si>
+  <si>
+    <t>[ -0.7415 148.3759   0.0003   6.1019   0.0068   0.0135   0.0208]</t>
+  </si>
+  <si>
+    <t>[ -0.7415 148.3736   0.0003   6.1022   0.0069   0.0135   0.0208]</t>
+  </si>
+  <si>
+    <t>[ -0.745  149.0416   0.0002   6.06     0.004    0.008    0.0205]</t>
+  </si>
+  <si>
+    <t>[ -0.745  149.0402   0.0002   6.0602   0.004    0.008    0.0205]</t>
+  </si>
+  <si>
+    <t>[ -0.747  149.4248   0.0001   6.036    0.0024   0.0048   0.0203]</t>
+  </si>
+  <si>
+    <t>[ -0.747  149.4243   0.0001   6.0361   0.0024   0.0048   0.0203]</t>
+  </si>
+  <si>
+    <t>[ -0.7473 149.4839   0.0001   6.0323   0.0022   0.0043   0.0203]</t>
+  </si>
+  <si>
+    <t>[ -0.7492 149.8528   0.       6.0092   0.0006   0.0012   0.0201]</t>
+  </si>
+  <si>
+    <t>[ -0.7492 149.8522   0.       6.0092   0.0006   0.0012   0.0201]</t>
+  </si>
+  <si>
+    <t>[ -0.7498 149.9569   0.       6.0027   0.0002   0.0004   0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.7498 149.9568   0.       6.0027   0.0002   0.0004   0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.7499 149.9857   0.       6.0009   0.0001   0.0001   0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.7499 149.9901   0.       6.0006   0.       0.0001   0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.75   149.9974   0.       6.0002   0.       0.       0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.75   149.9993   0.       6.       0.       0.       0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.75   149.9997   0.       6.       0.       0.       0.02  ]</t>
+  </si>
+  <si>
+    <t>[ -0.75   149.9999   0.       6.       0.       0.       0.02  ]</t>
+  </si>
+  <si>
+    <t>[1.7888 1.7471 5.1147 1.8698 1.3513 2.4182 5.1247]</t>
+  </si>
+  <si>
+    <t>[ 0.3494  0.4727  2.8638 -0.1245  0.8317  0.7826  2.8614]</t>
+  </si>
+  <si>
+    <t>[-0.7934  1.0945  1.2165  1.9012  1.0479 -0.2317  1.235 ]</t>
+  </si>
+  <si>
+    <t>[0.2771 0.3622 0.4737 0.734  0.5168 0.515  0.4885]</t>
+  </si>
+  <si>
+    <t>[0.5184 0.4472 0.4811 0.5025 0.4602 0.4769 0.4811]</t>
+  </si>
+  <si>
+    <t>[0.2722 0.2721 0.2697 0.2732 0.2737 0.2716 0.2755]</t>
+  </si>
+  <si>
+    <t>[0.2726 0.2726 0.2726 0.2726 0.2726 0.2726 0.2726]</t>
+  </si>
+  <si>
+    <t>[0.1422 0.1418 0.1399 0.1443 0.1452 0.1428 0.1467]</t>
+  </si>
+  <si>
+    <t>[0.1433 0.1433 0.1433 0.1433 0.1433 0.1433 0.1433]</t>
+  </si>
+  <si>
+    <t>[0.0807 0.0804 0.079  0.0825 0.0833 0.0813 0.0843]</t>
+  </si>
+  <si>
+    <t>[0.0816 0.0816 0.0817 0.0816 0.0816 0.0816 0.0816]</t>
+  </si>
+  <si>
+    <t>[0.0201 0.0191 0.0167 0.0255 0.0278 0.0221 0.0294]</t>
+  </si>
+  <si>
+    <t>[0.023  0.0231 0.0235 0.0229 0.0223 0.0229 0.023 ]</t>
+  </si>
+  <si>
+    <t>[0.0159 0.0158 0.016  0.0166 0.0167 0.0165 0.0168]</t>
+  </si>
+  <si>
+    <t>[0.0163 0.0163 0.0163 0.0163 0.0163 0.0163 0.0163]</t>
+  </si>
+  <si>
+    <t>[0.0041 0.0038 0.0049 0.0073 0.0074 0.0069 0.0076]</t>
+  </si>
+  <si>
+    <t>[0.0062 0.0062 0.006  0.006  0.0058 0.0056 0.0061]</t>
+  </si>
+  <si>
+    <t>[0.0046 0.0046 0.0046 0.0047 0.0046 0.0047 0.0047]</t>
+  </si>
+  <si>
+    <t>[0.0047 0.0047 0.0047 0.0047 0.0047 0.0047 0.0047]</t>
+  </si>
+  <si>
+    <t>[0.0011 0.0011 0.0014 0.0019 0.0014 0.0019 0.0021]</t>
+  </si>
+  <si>
+    <t>[0.0016 0.0016 0.0016 0.0016 0.0016 0.0015 0.0016]</t>
+  </si>
+  <si>
+    <t>[0.0007 0.0007 0.0007 0.0008 0.0007 0.0007 0.0008]</t>
+  </si>
+  <si>
+    <t>[0.0007 0.0007 0.0007 0.0007 0.0007 0.0007 0.0007]</t>
+  </si>
+  <si>
+    <t>[0.0004 0.0004 0.0004 0.0004 0.0004 0.0004 0.0004]</t>
+  </si>
+  <si>
+    <t>[0.0003 0.0003 0.0003 0.0003 0.0003 0.0003 0.0003]</t>
+  </si>
+  <si>
+    <t>[0.0002 0.0002 0.0002 0.0002 0.0002 0.0002 0.0002]</t>
+  </si>
+  <si>
+    <t>[0.0001 0.0001 0.0001 0.0001 0.0001 0.0001 0.0001]</t>
+  </si>
+  <si>
+    <t>[0. 0. 0. 0. 0. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -518,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-13938.82071236158</v>
+        <v>39.80403590861816</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -563,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10726.24270163211</v>
+        <v>9.178236621222045</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -580,16 +766,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10735.22858742916</v>
+        <v>5.470041408369548</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -597,16 +783,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2364.326744095397</v>
+        <v>3.367237813052891</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -614,16 +800,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2364.326744096528</v>
+        <v>3.367237813052891</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -631,16 +817,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>275.1603464777181</v>
+        <v>1.907994725106675</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -648,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>275.1603464776745</v>
+        <v>1.907994725106675</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.56556351013569</v>
+        <v>1.002916400086129</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -682,16 +868,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.56556351013569</v>
+        <v>1.002916400086129</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -699,16 +885,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.761518152441568</v>
+        <v>0.5715205610909704</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -716,16 +902,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.761518152441568</v>
+        <v>0.5715205610909702</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -733,16 +919,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2766488885026774</v>
+        <v>0.160690108930654</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -750,16 +936,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2766488885135914</v>
+        <v>0.1606901089306541</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -767,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02771468565333635</v>
+        <v>0.1143985092322389</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -784,16 +970,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02771468565333635</v>
+        <v>0.1143985092322389</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -801,16 +987,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.002776457229629159</v>
+        <v>0.04187058759365689</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -818,16 +1004,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.002776457204163307</v>
+        <v>0.0418705875936569</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -835,16 +1021,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0002781454786600079</v>
+        <v>0.03262741793377508</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -852,16 +1038,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0002781454859359656</v>
+        <v>0.03262741793377508</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -869,16 +1055,526 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.786461482173763e-05</v>
+        <v>0.01085043504596005</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.01085043504596005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.005059954097432685</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.005059954097432689</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.0030048969650978</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.003004896965097793</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.001885644787515919</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.001885644787515916</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.00111545308301219</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.001115453083012183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.000670081496675131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.000670081496675131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.0006008059144779511</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.0006008059144779476</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.0001722974441470751</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.0001722974441470855</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>5.035077346105324e-05</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>5.035077346105671e-05</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.666537817891084e-05</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.666537817890737e-05</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.157676096591106e-05</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.157676096591106e-05</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3.002715242641368e-06</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3.002715242644838e-06</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>8.100872066520159e-07</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>8.100872066381382e-07</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3.72725409206881e-07</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3.727254092103505e-07</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3.312741012652387e-07</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
         <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3.312741012617693e-07</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.609405588104407e-07</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
